--- a/Srini_ApplicationStatus_21_2_20.xlsx
+++ b/Srini_ApplicationStatus_21_2_20.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erupa\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E60DD9-2406-40D1-A450-F6157417E5A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0F809A-921F-4C95-817B-25BB70193E04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{5F337796-13E9-46E3-830E-646228CEE590}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="280">
   <si>
     <t>Customer Master</t>
   </si>
@@ -1655,7 +1655,7 @@
   <dimension ref="C2:H114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D112" sqref="D112"/>
+      <selection activeCell="E113" sqref="E113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2999,12 +2999,15 @@
         <v>276</v>
       </c>
     </row>
-    <row r="113" spans="5:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="5:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E113" s="22" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="114" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F113" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="114" spans="5:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E114" t="s">
         <v>278</v>
       </c>

--- a/Srini_ApplicationStatus_21_2_20.xlsx
+++ b/Srini_ApplicationStatus_21_2_20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0F809A-921F-4C95-817B-25BB70193E04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A65DDB7-7A53-4AF8-A680-8F0B6DA7C04E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{5F337796-13E9-46E3-830E-646228CEE590}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="280">
   <si>
     <t>Customer Master</t>
   </si>
@@ -1655,7 +1655,7 @@
   <dimension ref="C2:H114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E113" sqref="E113"/>
+      <selection activeCell="E111" sqref="E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2989,6 +2989,9 @@
       </c>
       <c r="E111" t="s">
         <v>274</v>
+      </c>
+      <c r="H111" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="112" spans="4:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">

--- a/Srini_ApplicationStatus_21_2_20.xlsx
+++ b/Srini_ApplicationStatus_21_2_20.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A65DDB7-7A53-4AF8-A680-8F0B6DA7C04E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{5F337796-13E9-46E3-830E-646228CEE590}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="23130" windowHeight="8715"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$C$2:$G$105</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="296">
   <si>
     <t>Customer Master</t>
   </si>
@@ -1003,11 +1002,59 @@
   <si>
     <t>W/Ch Overdue is Mismatching</t>
   </si>
+  <si>
+    <t>Grid Export</t>
+  </si>
+  <si>
+    <t>Admin,Mngr JT Grid Access</t>
+  </si>
+  <si>
+    <t>Font Changes PV Print Form</t>
+  </si>
+  <si>
+    <t>Dashboard W/Ch Overdue Changes</t>
+  </si>
+  <si>
+    <t>Site Card Old RMA Entry</t>
+  </si>
+  <si>
+    <t>Dashboard Overdue based on Category</t>
+  </si>
+  <si>
+    <t>Mail Changes</t>
+  </si>
+  <si>
+    <t>Repair Excel Report</t>
+  </si>
+  <si>
+    <t>Daily Report</t>
+  </si>
+  <si>
+    <t>JT-Print 12 rows</t>
+  </si>
+  <si>
+    <t>VC-Restored Customer Setting Field(Yes/No)</t>
+  </si>
+  <si>
+    <t>JT- Downloaded Customer Setting Field(Yes/No)</t>
+  </si>
+  <si>
+    <t>Dispatch Approval/ Dispatch Functionality Interchange</t>
+  </si>
+  <si>
+    <t>Daily DB Backup</t>
+  </si>
+  <si>
+    <t>Onetime upload</t>
+  </si>
+  <si>
+    <t>Dashboard Receipt Overdue</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1651,22 +1698,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2B886C-D7E2-48BE-AD25-6F5277F241E1}">
-  <dimension ref="C2:H114"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:H132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E111" sqref="E111"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D122" sqref="D122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="8.734375" style="1"/>
-    <col min="4" max="4" width="47.734375" customWidth="1"/>
-    <col min="5" max="5" width="33.7890625" customWidth="1"/>
-    <col min="6" max="6" width="11.47265625" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="1"/>
+    <col min="4" max="4" width="47.7109375" customWidth="1"/>
+    <col min="5" max="5" width="33.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>34</v>
       </c>
@@ -1683,7 +1731,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C3" s="4">
         <v>1</v>
       </c>
@@ -1697,7 +1745,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C4" s="4">
         <v>2</v>
       </c>
@@ -1711,7 +1759,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C5" s="4">
         <v>3</v>
       </c>
@@ -1725,7 +1773,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C6" s="4">
         <v>4</v>
       </c>
@@ -1739,7 +1787,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C7" s="4">
         <v>5</v>
       </c>
@@ -1751,7 +1799,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C8" s="4">
         <v>6</v>
       </c>
@@ -1765,7 +1813,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C9" s="4">
         <v>7</v>
       </c>
@@ -1779,7 +1827,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C10" s="4">
         <v>8</v>
       </c>
@@ -1793,7 +1841,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C11" s="4">
         <v>9</v>
       </c>
@@ -1807,7 +1855,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C12" s="4">
         <v>10</v>
       </c>
@@ -1819,7 +1867,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C13" s="4">
         <v>11</v>
       </c>
@@ -1831,7 +1879,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C14" s="4">
         <v>12</v>
       </c>
@@ -1845,7 +1893,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C15" s="4">
         <v>13</v>
       </c>
@@ -1859,7 +1907,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C16" s="4">
         <v>14</v>
       </c>
@@ -1873,7 +1921,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17" s="4">
         <v>15</v>
       </c>
@@ -1885,7 +1933,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C18" s="4">
         <v>16</v>
       </c>
@@ -1899,7 +1947,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C19" s="4">
         <v>17</v>
       </c>
@@ -1913,7 +1961,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C20" s="4">
         <v>18</v>
       </c>
@@ -1927,7 +1975,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C21" s="4">
         <v>19</v>
       </c>
@@ -1941,7 +1989,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C22" s="4">
         <v>20</v>
       </c>
@@ -1955,7 +2003,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C23" s="4">
         <v>21</v>
       </c>
@@ -1967,7 +2015,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C24" s="4">
         <v>22</v>
       </c>
@@ -1981,7 +2029,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C25" s="4">
         <v>23</v>
       </c>
@@ -1995,7 +2043,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C26" s="4">
         <v>24</v>
       </c>
@@ -2009,7 +2057,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D27" s="28" t="s">
         <v>10</v>
       </c>
@@ -2020,7 +2068,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D28" s="28" t="s">
         <v>31</v>
       </c>
@@ -2031,7 +2079,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C29" s="1">
         <v>25</v>
       </c>
@@ -2048,7 +2096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C30" s="1">
         <v>26</v>
       </c>
@@ -2062,7 +2110,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C31" s="1">
         <v>27</v>
       </c>
@@ -2076,7 +2124,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C32" s="1">
         <v>28</v>
       </c>
@@ -2093,7 +2141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C33" s="1">
         <v>29</v>
       </c>
@@ -2107,7 +2155,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C34" s="1">
         <v>30</v>
       </c>
@@ -2121,7 +2169,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C35" s="1">
         <v>31</v>
       </c>
@@ -2135,7 +2183,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C36" s="1">
         <v>32</v>
       </c>
@@ -2149,7 +2197,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C37" s="1">
         <v>33</v>
       </c>
@@ -2163,7 +2211,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C38" s="1">
         <v>34</v>
       </c>
@@ -2174,7 +2222,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C39" s="1">
         <v>35</v>
       </c>
@@ -2188,7 +2236,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C40" s="1">
         <v>36</v>
       </c>
@@ -2202,7 +2250,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C41" s="1">
         <v>37</v>
       </c>
@@ -2213,7 +2261,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C42" s="1">
         <v>38</v>
       </c>
@@ -2224,7 +2272,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="43" spans="3:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C43" s="1">
         <v>1</v>
       </c>
@@ -2238,7 +2286,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="44" spans="3:6" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="3:6" ht="90" x14ac:dyDescent="0.25">
       <c r="C44" s="1">
         <v>2</v>
       </c>
@@ -2252,7 +2300,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C45" s="1">
         <v>3</v>
       </c>
@@ -2266,7 +2314,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="46" spans="3:6" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="3:6" ht="105" x14ac:dyDescent="0.25">
       <c r="C46" s="1">
         <v>4</v>
       </c>
@@ -2280,7 +2328,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C47" s="1">
         <v>5</v>
       </c>
@@ -2288,7 +2336,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C48" s="1">
         <v>6</v>
       </c>
@@ -2299,7 +2347,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="49" spans="3:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="3:7" ht="30" x14ac:dyDescent="0.25">
       <c r="C49" s="1">
         <v>7</v>
       </c>
@@ -2313,7 +2361,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="50" spans="3:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="3:7" ht="30" x14ac:dyDescent="0.25">
       <c r="C50" s="1">
         <v>8</v>
       </c>
@@ -2327,7 +2375,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="51" spans="3:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="3:7" ht="30" x14ac:dyDescent="0.25">
       <c r="C51" s="1">
         <v>9</v>
       </c>
@@ -2341,7 +2389,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="52" spans="3:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="3:7" ht="30" x14ac:dyDescent="0.25">
       <c r="C52" s="1">
         <v>10</v>
       </c>
@@ -2355,7 +2403,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C53" s="1">
         <v>11</v>
       </c>
@@ -2369,7 +2417,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="54" spans="3:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="3:7" ht="30" x14ac:dyDescent="0.25">
       <c r="C54" s="1">
         <v>12</v>
       </c>
@@ -2383,7 +2431,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C55" s="1">
         <v>13</v>
       </c>
@@ -2397,7 +2445,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="56" spans="3:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="3:7" ht="30" x14ac:dyDescent="0.25">
       <c r="C56" s="1">
         <v>1</v>
       </c>
@@ -2411,7 +2459,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C57" s="1">
         <v>3</v>
       </c>
@@ -2422,7 +2470,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C58" s="1">
         <v>4</v>
       </c>
@@ -2436,7 +2484,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="59" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E59" t="s">
         <v>212</v>
       </c>
@@ -2444,7 +2492,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E60" t="s">
         <v>213</v>
       </c>
@@ -2452,7 +2500,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="61" spans="3:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="3:7" ht="30" x14ac:dyDescent="0.25">
       <c r="E61" s="22" t="s">
         <v>214</v>
       </c>
@@ -2460,7 +2508,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="62" spans="3:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="3:7" ht="30" x14ac:dyDescent="0.25">
       <c r="C62" s="1">
         <v>5</v>
       </c>
@@ -2474,7 +2522,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="63" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C63" s="1">
         <v>6</v>
       </c>
@@ -2488,7 +2536,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E64" t="s">
         <v>223</v>
       </c>
@@ -2496,7 +2544,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="65" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C65" s="1">
         <v>7</v>
       </c>
@@ -2510,7 +2558,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="66" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E66" t="s">
         <v>225</v>
       </c>
@@ -2518,7 +2566,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="67" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C67" s="1">
         <v>8</v>
       </c>
@@ -2532,7 +2580,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="68" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E68" t="s">
         <v>235</v>
       </c>
@@ -2540,7 +2588,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="69" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C69" s="1">
         <v>1</v>
       </c>
@@ -2554,7 +2602,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="70" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C70" s="1">
         <v>2</v>
       </c>
@@ -2565,7 +2613,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="71" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C71" s="1">
         <v>1</v>
       </c>
@@ -2579,7 +2627,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="72" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C72" s="1">
         <v>2</v>
       </c>
@@ -2593,7 +2641,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="73" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E73" t="s">
         <v>238</v>
       </c>
@@ -2601,7 +2649,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="74" spans="3:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="3:7" ht="30" x14ac:dyDescent="0.25">
       <c r="C74" s="1">
         <v>3</v>
       </c>
@@ -2615,7 +2663,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="75" spans="3:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="3:7" ht="30" x14ac:dyDescent="0.25">
       <c r="E75" s="22" t="s">
         <v>240</v>
       </c>
@@ -2623,7 +2671,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="76" spans="3:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="3:7" ht="30" x14ac:dyDescent="0.25">
       <c r="E76" s="22" t="s">
         <v>241</v>
       </c>
@@ -2631,7 +2679,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E77" t="s">
         <v>234</v>
       </c>
@@ -2639,7 +2687,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="78" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C78" s="1">
         <v>4</v>
       </c>
@@ -2653,7 +2701,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="79" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E79" t="s">
         <v>236</v>
       </c>
@@ -2661,7 +2709,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="80" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C80" s="1">
         <v>5</v>
       </c>
@@ -2675,7 +2723,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="81" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C81" s="1">
         <v>6</v>
       </c>
@@ -2689,7 +2737,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="82" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C82" s="1">
         <v>7</v>
       </c>
@@ -2697,7 +2745,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="83" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C83" s="1">
         <v>8</v>
       </c>
@@ -2708,7 +2756,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="84" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C84" s="1">
         <v>9</v>
       </c>
@@ -2719,7 +2767,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="85" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C85" s="1">
         <v>10</v>
       </c>
@@ -2730,7 +2778,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="86" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C86" s="1">
         <v>11</v>
       </c>
@@ -2741,7 +2789,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="87" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C87" s="1">
         <v>12</v>
       </c>
@@ -2755,7 +2803,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="88" spans="3:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="3:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
         <v>184</v>
       </c>
@@ -2769,7 +2817,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="89" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E89" t="s">
         <v>252</v>
       </c>
@@ -2780,7 +2828,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="90" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E90" t="s">
         <v>253</v>
       </c>
@@ -2791,7 +2839,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="91" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E91" t="s">
         <v>254</v>
       </c>
@@ -2802,7 +2850,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="92" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E92" t="s">
         <v>255</v>
       </c>
@@ -2813,7 +2861,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E93" t="s">
         <v>256</v>
       </c>
@@ -2824,7 +2872,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="94" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E94" t="s">
         <v>257</v>
       </c>
@@ -2835,7 +2883,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="95" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E95" s="29" t="s">
         <v>269</v>
       </c>
@@ -2846,7 +2894,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="96" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E96" t="s">
         <v>264</v>
       </c>
@@ -2857,7 +2905,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="97" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E97" t="s">
         <v>258</v>
       </c>
@@ -2868,7 +2916,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="98" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D98" t="s">
         <v>221</v>
       </c>
@@ -2882,7 +2930,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="99" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E99" t="s">
         <v>260</v>
       </c>
@@ -2893,7 +2941,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="100" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D100" t="s">
         <v>261</v>
       </c>
@@ -2907,7 +2955,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="101" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E101" t="s">
         <v>263</v>
       </c>
@@ -2918,7 +2966,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="102" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E102" t="s">
         <v>265</v>
       </c>
@@ -2926,7 +2974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E103" t="s">
         <v>266</v>
       </c>
@@ -2937,7 +2985,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="104" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E104" t="s">
         <v>267</v>
       </c>
@@ -2948,7 +2996,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="105" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E105" t="s">
         <v>268</v>
       </c>
@@ -2959,7 +3007,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="107" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D107" t="s">
         <v>272</v>
       </c>
@@ -2970,7 +3018,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="108" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D108" t="s">
         <v>184</v>
       </c>
@@ -2978,12 +3026,12 @@
         <v>279</v>
       </c>
     </row>
-    <row r="110" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E110" s="31">
         <v>43895</v>
       </c>
     </row>
-    <row r="111" spans="4:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D111" t="s">
         <v>184</v>
       </c>
@@ -2994,7 +3042,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="112" spans="4:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="4:8" ht="30" x14ac:dyDescent="0.25">
       <c r="E112" s="22" t="s">
         <v>275</v>
       </c>
@@ -3002,7 +3050,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="113" spans="5:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="5:7" ht="30" x14ac:dyDescent="0.25">
       <c r="E113" s="22" t="s">
         <v>277</v>
       </c>
@@ -3010,42 +3058,142 @@
         <v>276</v>
       </c>
     </row>
-    <row r="114" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E114" t="s">
         <v>278</v>
       </c>
     </row>
+    <row r="116" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E116" s="31">
+        <v>43899</v>
+      </c>
+    </row>
+    <row r="117" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E117" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="118" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E118" t="s">
+        <v>281</v>
+      </c>
+      <c r="G118" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="119" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E119" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="120" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E120" t="s">
+        <v>295</v>
+      </c>
+      <c r="G120" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="121" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E121" t="s">
+        <v>283</v>
+      </c>
+      <c r="G121" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="122" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E122" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="123" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E123" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="124" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E124" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="125" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E125" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="126" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E126" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="127" spans="5:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="E127" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="G127" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="128" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E128" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="129" spans="5:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="E129" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="G129" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="130" spans="5:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="E130" s="22" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="131" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E131" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="132" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E132" t="s">
+        <v>294</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="C2:G105" xr:uid="{7D699F5E-B609-47DF-B171-4333ED5628B2}"/>
+  <autoFilter ref="C2:G105"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC3A78D-2B0A-45D3-9BAD-D0C3D1A5756C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.26171875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>140</v>
       </c>
@@ -3056,20 +3204,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F148B1-EC00-4004-B659-AB682DC96332}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.7890625" customWidth="1"/>
-    <col min="4" max="4" width="10.47265625" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>63</v>
       </c>
@@ -3089,7 +3237,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -3109,7 +3257,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="57.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -3129,7 +3277,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -3155,26 +3303,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB8C4A8C-0A46-45CA-9759-8E851D7FB097}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:L10"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="25.5234375" customWidth="1"/>
-    <col min="5" max="5" width="80.47265625" customWidth="1"/>
-    <col min="6" max="6" width="9.26171875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.47265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" customWidth="1"/>
+    <col min="5" max="5" width="80.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="42" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7890625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5234375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="3" spans="3:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="13" t="s">
         <v>34</v>
       </c>
@@ -3203,7 +3351,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="3:12" ht="288" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="3:12" ht="315" x14ac:dyDescent="0.25">
       <c r="C4" s="11">
         <v>1</v>
       </c>
@@ -3232,7 +3380,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="3:12" ht="403.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="3:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="C5" s="7">
         <v>2</v>
       </c>
@@ -3252,7 +3400,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="3:12" ht="302.39999999999998" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="3:12" ht="315" x14ac:dyDescent="0.25">
       <c r="C6" s="7">
         <v>3</v>
       </c>
@@ -3272,7 +3420,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="3:12" ht="374.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="3:12" ht="390.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="16">
         <v>4</v>
       </c>
@@ -3295,7 +3443,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="3:12" ht="273.60000000000002" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="3:12" ht="300" x14ac:dyDescent="0.25">
       <c r="D8" s="23" t="s">
         <v>59</v>
       </c>
@@ -3306,7 +3454,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="3:12" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="3:12" ht="45" x14ac:dyDescent="0.25">
       <c r="D10" s="21" t="s">
         <v>77</v>
       </c>
@@ -3319,8 +3467,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H4" r:id="rId1" xr:uid="{B5B2A4DA-D981-4CFE-BFC0-5CEFB6BDCD51}"/>
-    <hyperlink ref="J4" r:id="rId2" xr:uid="{9136F70C-A404-4527-9AFF-F48AB29297CE}"/>
+    <hyperlink ref="H4" r:id="rId1"/>
+    <hyperlink ref="J4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -3328,21 +3476,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF514C4C-E738-4A4C-B274-BC460FB27315}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7890625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.1015625" customWidth="1"/>
-    <col min="3" max="3" width="13.47265625" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>79</v>
       </c>
@@ -3353,7 +3501,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>123</v>
       </c>
@@ -3361,10 +3509,10 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>80</v>
       </c>
@@ -3378,17 +3526,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>82</v>
       </c>
@@ -3399,47 +3547,47 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="22" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>90</v>
       </c>
@@ -3453,27 +3601,27 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>96</v>
       </c>
@@ -3487,38 +3635,38 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B27" s="22" t="s">
         <v>122</v>
       </c>
       <c r="C27" s="22"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
         <v>101</v>
       </c>
@@ -3532,32 +3680,32 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="B33" s="22" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="s">
         <v>106</v>
       </c>
@@ -3571,17 +3719,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
         <v>109</v>
       </c>
@@ -3589,17 +3737,17 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>110</v>
       </c>
@@ -3613,12 +3761,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="24" t="s">
         <v>114</v>
       </c>
@@ -3632,12 +3780,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="24" t="s">
         <v>112</v>
       </c>
@@ -3651,27 +3799,27 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>95</v>
       </c>
@@ -3683,37 +3831,37 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A4286A-659D-45D4-83BA-FDBF195273D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.47265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.47265625" customWidth="1"/>
-    <col min="3" max="3" width="18.26171875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="17.7890625" customWidth="1"/>
-    <col min="6" max="6" width="26.3671875" customWidth="1"/>
-    <col min="7" max="7" width="19.15625" customWidth="1"/>
-    <col min="8" max="8" width="8.5234375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7890625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>143</v>
       </c>
@@ -3721,17 +3869,17 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>146</v>
       </c>
@@ -3739,12 +3887,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
       <c r="B10" s="24"/>
       <c r="C10" s="24"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>147</v>
       </c>
@@ -3755,7 +3903,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>148</v>
       </c>
@@ -3763,7 +3911,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>162</v>
       </c>
@@ -3801,24 +3949,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B429928-90A3-436D-B1D2-88CA568BEA10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.1015625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F1" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>158</v>
       </c>
@@ -3826,20 +3974,20 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="27"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>160</v>
       </c>
@@ -3847,7 +3995,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>161</v>
       </c>
@@ -3858,19 +4006,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D17E82B8-8D9F-482E-81E9-5B5D18464067}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.5234375" customWidth="1"/>
+    <col min="1" max="1" width="61.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>163</v>
       </c>
@@ -3878,7 +4026,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>164</v>
       </c>
@@ -3892,16 +4040,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D6DC858-A9BF-46D7-B099-1B8F140B4517}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>125</v>
       </c>
@@ -3909,7 +4057,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -3917,12 +4065,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>127</v>
       </c>
@@ -3936,27 +4084,27 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>135</v>
       </c>
@@ -3967,14 +4115,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A0808CF-01B4-4A23-80A9-B757C840B9C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>137</v>
       </c>
@@ -3982,7 +4130,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F2" t="s">
         <v>50</v>
       </c>

--- a/Srini_ApplicationStatus_21_2_20.xlsx
+++ b/Srini_ApplicationStatus_21_2_20.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="297">
   <si>
     <t>Customer Master</t>
   </si>
@@ -1049,6 +1049,9 @@
   </si>
   <si>
     <t>Dashboard Receipt Overdue</t>
+  </si>
+  <si>
+    <t>Dashboard- Hover Over Overdue</t>
   </si>
 </sst>
 </file>
@@ -1699,10 +1702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:H132"/>
+  <dimension ref="C2:H133"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D122" sqref="D122"/>
+      <selection activeCell="G133" sqref="G133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3161,6 +3164,14 @@
     <row r="132" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E132" t="s">
         <v>294</v>
+      </c>
+    </row>
+    <row r="133" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E133" t="s">
+        <v>296</v>
+      </c>
+      <c r="G133" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Srini_ApplicationStatus_21_2_20.xlsx
+++ b/Srini_ApplicationStatus_21_2_20.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="299">
   <si>
     <t>Customer Master</t>
   </si>
@@ -1052,6 +1052,12 @@
   </si>
   <si>
     <t>Dashboard- Hover Over Overdue</t>
+  </si>
+  <si>
+    <t>(RID, Family, S.No, Overdue Age, Overall the overdue)</t>
+  </si>
+  <si>
+    <t>Master - Overdue for individual Product Category</t>
   </si>
 </sst>
 </file>
@@ -1702,10 +1708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:H133"/>
+  <dimension ref="C2:H134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G133" sqref="G133"/>
+    <sheetView tabSelected="1" topLeftCell="A119" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G124" sqref="G124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1713,7 +1719,7 @@
     <col min="3" max="3" width="8.7109375" style="1"/>
     <col min="4" max="4" width="47.7109375" customWidth="1"/>
     <col min="5" max="5" width="33.85546875" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3114,6 +3120,9 @@
       <c r="E123" t="s">
         <v>285</v>
       </c>
+      <c r="G123" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="124" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E124" t="s">
@@ -3142,6 +3151,9 @@
       <c r="E128" t="s">
         <v>289</v>
       </c>
+      <c r="G128" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="129" spans="5:7" ht="30" x14ac:dyDescent="0.25">
       <c r="E129" s="22" t="s">
@@ -3166,11 +3178,19 @@
         <v>294</v>
       </c>
     </row>
-    <row r="133" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="5:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E133" t="s">
         <v>296</v>
       </c>
-      <c r="G133" t="s">
+      <c r="F133" s="22" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="134" spans="5:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="E134" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="G134" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3317,8 +3337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:L10"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Srini_ApplicationStatus_21_2_20.xlsx
+++ b/Srini_ApplicationStatus_21_2_20.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="299">
   <si>
     <t>Customer Master</t>
   </si>
@@ -1711,7 +1711,7 @@
   <dimension ref="C2:H134"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A119" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G124" sqref="G124"/>
+      <selection activeCell="D130" sqref="D130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3094,6 +3094,9 @@
       <c r="E119" t="s">
         <v>282</v>
       </c>
+      <c r="G119" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="120" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E120" t="s">
@@ -3172,6 +3175,9 @@
       <c r="E131" t="s">
         <v>293</v>
       </c>
+      <c r="G131" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="132" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E132" t="s">
@@ -3184,6 +3190,9 @@
       </c>
       <c r="F133" s="22" t="s">
         <v>297</v>
+      </c>
+      <c r="G133" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="134" spans="5:7" ht="30" x14ac:dyDescent="0.25">

--- a/Srini_ApplicationStatus_21_2_20.xlsx
+++ b/Srini_ApplicationStatus_21_2_20.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="305">
   <si>
     <t>Customer Master</t>
   </si>
@@ -1058,6 +1058,24 @@
   </si>
   <si>
     <t>Master - Overdue for individual Product Category</t>
+  </si>
+  <si>
+    <t>13/03/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> In all Emails - Text “If you need further assistance, please contact CRC Hotline “ should changed to “If you need further assistance, please reply”</t>
+  </si>
+  <si>
+    <t>Receipt Email Subject should be “Receipt Completion - &lt; Receipt Id&gt;”</t>
+  </si>
+  <si>
+    <t>Physical Verification Email Subject should be “Physical Verification Completion – RMA:  &lt; RMA no&gt;”</t>
+  </si>
+  <si>
+    <t>W/C Declaration Email Subject should be “W/C Declaration – RID:  &lt; RID no&gt;”</t>
+  </si>
+  <si>
+    <t>Dispatch Email Subject should be “Dispatch Completion – RMA:  &lt; RMA no&gt;”</t>
   </si>
 </sst>
 </file>
@@ -1708,10 +1726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:H134"/>
+  <dimension ref="C2:H141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D130" sqref="D130"/>
+    <sheetView tabSelected="1" topLeftCell="A134" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E138" sqref="E138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3158,7 +3176,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="129" spans="5:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="4:7" ht="30" x14ac:dyDescent="0.25">
       <c r="E129" s="22" t="s">
         <v>290</v>
       </c>
@@ -3166,12 +3184,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="130" spans="5:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="4:7" ht="30" x14ac:dyDescent="0.25">
       <c r="E130" s="22" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="131" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E131" t="s">
         <v>293</v>
       </c>
@@ -3179,12 +3197,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="132" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E132" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="133" spans="5:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="4:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E133" t="s">
         <v>296</v>
       </c>
@@ -3195,11 +3213,59 @@
         <v>50</v>
       </c>
     </row>
-    <row r="134" spans="5:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="4:7" ht="30" x14ac:dyDescent="0.25">
       <c r="E134" s="22" t="s">
         <v>298</v>
       </c>
       <c r="G134" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="136" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E136" s="24" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="137" spans="4:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="D137" t="s">
+        <v>286</v>
+      </c>
+      <c r="E137" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="G137" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="138" spans="4:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="E138" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="G138" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="139" spans="4:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="E139" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="G139" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="140" spans="4:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="E140" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="G140" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="141" spans="4:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="E141" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="G141" t="s">
         <v>50</v>
       </c>
     </row>

--- a/Srini_ApplicationStatus_21_2_20.xlsx
+++ b/Srini_ApplicationStatus_21_2_20.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="311">
   <si>
     <t>Customer Master</t>
   </si>
@@ -1076,6 +1076,24 @@
   </si>
   <si>
     <t>Dispatch Email Subject should be “Dispatch Completion – RMA:  &lt; RMA no&gt;”</t>
+  </si>
+  <si>
+    <t>Need Clarification</t>
+  </si>
+  <si>
+    <t>Repair Report</t>
+  </si>
+  <si>
+    <t>Customer - RMA or Receipt Customer</t>
+  </si>
+  <si>
+    <t>Repair Status - Which field</t>
+  </si>
+  <si>
+    <t>End Customer - Which field</t>
+  </si>
+  <si>
+    <t>Transformer and other components - Which field</t>
   </si>
 </sst>
 </file>
@@ -1336,7 +1354,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1411,6 +1429,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1726,10 +1747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:H141"/>
+  <dimension ref="C2:H148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E138" sqref="E138"/>
+    <sheetView tabSelected="1" topLeftCell="A140" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D148" sqref="D148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3267,6 +3288,34 @@
       </c>
       <c r="G141" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="144" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E144" s="32" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="145" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D145" t="s">
+        <v>306</v>
+      </c>
+      <c r="E145" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="146" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E146" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="147" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E147" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="148" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E148" s="22" t="s">
+        <v>310</v>
       </c>
     </row>
   </sheetData>

--- a/Srini_ApplicationStatus_21_2_20.xlsx
+++ b/Srini_ApplicationStatus_21_2_20.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="313">
   <si>
     <t>Customer Master</t>
   </si>
@@ -1087,13 +1087,19 @@
     <t>Customer - RMA or Receipt Customer</t>
   </si>
   <si>
-    <t>Repair Status - Which field</t>
-  </si>
-  <si>
     <t>End Customer - Which field</t>
   </si>
   <si>
     <t>Transformer and other components - Which field</t>
+  </si>
+  <si>
+    <t>(Sitecard/Physical) - (W/Ch Repair Type)</t>
+  </si>
+  <si>
+    <t>Remove</t>
+  </si>
+  <si>
+    <t>Repair Status - Which field change to repair type</t>
   </si>
 </sst>
 </file>
@@ -1750,7 +1756,7 @@
   <dimension ref="C2:H148"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A140" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D148" sqref="D148"/>
+      <selection activeCell="E147" sqref="E147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3170,6 +3176,9 @@
       <c r="E124" t="s">
         <v>286</v>
       </c>
+      <c r="G124" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="125" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E125" t="s">
@@ -3209,6 +3218,9 @@
       <c r="E130" s="22" t="s">
         <v>292</v>
       </c>
+      <c r="G130" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="131" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E131" t="s">
@@ -3295,27 +3307,39 @@
         <v>305</v>
       </c>
     </row>
-    <row r="145" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D145" t="s">
         <v>306</v>
       </c>
       <c r="E145" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="146" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F145" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="146" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E146" t="s">
+        <v>308</v>
+      </c>
+      <c r="F146" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="147" spans="4:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E147" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="F147" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="148" spans="4:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E148" s="22" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="147" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E147" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="148" spans="4:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="E148" s="22" t="s">
-        <v>310</v>
+      <c r="F148" t="s">
+        <v>311</v>
       </c>
     </row>
   </sheetData>

--- a/Srini_ApplicationStatus_21_2_20.xlsx
+++ b/Srini_ApplicationStatus_21_2_20.xlsx
@@ -1755,8 +1755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:H148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E147" sqref="E147"/>
+    <sheetView tabSelected="1" topLeftCell="A128" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C131" sqref="C131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Srini_ApplicationStatus_21_2_20.xlsx
+++ b/Srini_ApplicationStatus_21_2_20.xlsx
@@ -1755,8 +1755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:H148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C131" sqref="C131"/>
+    <sheetView tabSelected="1" topLeftCell="A140" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F150" sqref="F150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Srini_ApplicationStatus_21_2_20.xlsx
+++ b/Srini_ApplicationStatus_21_2_20.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -27,15 +27,10 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$C$2:$G$105</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1755,8 +1750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:H148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F150" sqref="F150"/>
+    <sheetView tabSelected="1" topLeftCell="A113" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F118" sqref="F118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
